--- a/11-CollaborationList/RosalindFranklinInstitut.xlsx
+++ b/11-CollaborationList/RosalindFranklinInstitut.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkr/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/Library/CloudStorage/Box-Box/CubMac-Box/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA4B75C8-3E27-5747-B68E-7FE4E9176A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B19754-A731-2C44-93BF-4C46E8D29F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{18B64CCE-4F13-264C-AA52-FBC18C0F4E1D}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Title</t>
   </si>
@@ -70,52 +70,34 @@
     <t xml:space="preserve">Prof. </t>
   </si>
   <si>
-    <t>Angus</t>
-  </si>
-  <si>
-    <t>Kirkland</t>
-  </si>
-  <si>
-    <t>A.</t>
-  </si>
-  <si>
-    <t>angus.kirkland@rfi.ac.uk</t>
-  </si>
-  <si>
-    <t>A. Kirkland</t>
-  </si>
-  <si>
     <t>RFI</t>
   </si>
   <si>
     <t>Rosalind Franklin Institute, Harwell Campus, Didcot, OX11 0QX, UK</t>
   </si>
   <si>
-    <t>Oxf-Mat</t>
-  </si>
-  <si>
-    <t>Department of Materials, University of Oxford, Parks Road, Oxford OX1 3PH, UK</t>
-  </si>
-  <si>
     <t>IB</t>
   </si>
   <si>
-    <t>Dr</t>
-  </si>
-  <si>
-    <t>Laura</t>
-  </si>
-  <si>
-    <t>Holland</t>
-  </si>
-  <si>
-    <t>L.</t>
-  </si>
-  <si>
-    <t>laura.holland@rfi.ac.uk</t>
-  </si>
-  <si>
-    <t>L. Holland</t>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Matthews</t>
+  </si>
+  <si>
+    <t>P.</t>
+  </si>
+  <si>
+    <t>p.matthews@imperial.ac.uk, director@rfi.ac.uk</t>
+  </si>
+  <si>
+    <t>P. Matthews</t>
+  </si>
+  <si>
+    <t>BrnMed-ICL</t>
+  </si>
+  <si>
+    <t>Department of Brain Sciences,Faculty of Medicine, Imperial College London, Exhibition Road, London SW7 2AZ, UK</t>
   </si>
 </sst>
 </file>
@@ -660,8 +642,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{92371F92-1416-FE46-9557-D12CAFBC9144}" name="Table1" displayName="Table1" ref="A1:O3" totalsRowShown="0">
-  <autoFilter ref="A1:O3" xr:uid="{92371F92-1416-FE46-9557-D12CAFBC9144}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{92371F92-1416-FE46-9557-D12CAFBC9144}" name="Table1" displayName="Table1" ref="A1:O2" totalsRowShown="0">
+  <autoFilter ref="A1:O2" xr:uid="{92371F92-1416-FE46-9557-D12CAFBC9144}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{BDF1F719-2C10-9E48-A872-D045F9DB1670}" name="Title"/>
     <tableColumn id="2" xr3:uid="{7C2301D5-A570-FA49-90E5-9F315A89E5B2}" name="Name"/>
@@ -1000,10 +982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE6AFCB3-EC26-FD40-9396-4CAE5A256994}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:O3"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1018,7 +1000,7 @@
     <col min="8" max="8" width="55.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="65" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="94.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
@@ -1077,66 +1059,37 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="H2" t="s">
         <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/11-CollaborationList/RosalindFranklinInstitut.xlsx
+++ b/11-CollaborationList/RosalindFranklinInstitut.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/Library/CloudStorage/Box-Box/CubMac-Box/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B19754-A731-2C44-93BF-4C46E8D29F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F0D3FD-9213-134B-AB6B-9A2D932095F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{18B64CCE-4F13-264C-AA52-FBC18C0F4E1D}"/>
   </bookViews>
@@ -88,9 +88,6 @@
     <t>P.</t>
   </si>
   <si>
-    <t>p.matthews@imperial.ac.uk, director@rfi.ac.uk</t>
-  </si>
-  <si>
     <t>P. Matthews</t>
   </si>
   <si>
@@ -98,6 +95,9 @@
   </si>
   <si>
     <t>Department of Brain Sciences,Faculty of Medicine, Imperial College London, Exhibition Road, London SW7 2AZ, UK</t>
+  </si>
+  <si>
+    <t>p.matthews@imperial.ac.uk; director@rfi.ac.uk</t>
   </si>
 </sst>
 </file>
@@ -985,7 +985,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -994,7 +994,7 @@
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="55.83203125" bestFit="1" customWidth="1"/>
@@ -1068,10 +1068,10 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
         <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
       </c>
       <c r="G2" t="s">
         <v>16</v>
@@ -1083,10 +1083,10 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
         <v>24</v>
-      </c>
-      <c r="K2" t="s">
-        <v>25</v>
       </c>
       <c r="O2" t="s">
         <v>18</v>

--- a/11-CollaborationList/RosalindFranklinInstitut.xlsx
+++ b/11-CollaborationList/RosalindFranklinInstitut.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/Library/CloudStorage/Box-Box/CubMac-Box/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://api.box.com/wopi/files/2050118231053/WOPIServiceId_TP_BOX_2/WOPIUserId_-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F0D3FD-9213-134B-AB6B-9A2D932095F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{A1F0D3FD-9213-134B-AB6B-9A2D932095F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54FC321F-B232-704A-8114-99E3AC4ACB8E}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{18B64CCE-4F13-264C-AA52-FBC18C0F4E1D}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Title</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>p.matthews@imperial.ac.uk; director@rfi.ac.uk</t>
+  </si>
+  <si>
+    <t>0000-0002-1619-8328</t>
   </si>
 </sst>
 </file>
@@ -984,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE6AFCB3-EC26-FD40-9396-4CAE5A256994}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1003,7 +1006,7 @@
     <col min="11" max="11" width="94.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1087,6 +1090,9 @@
       </c>
       <c r="K2" t="s">
         <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
       </c>
       <c r="O2" t="s">
         <v>18</v>
